--- a/himiya/Map_01.xlsx
+++ b/himiya/Map_01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp029\Desktop\3DTeamGame\Team3DGame\data\MAPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DTeamGame\himiya\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8352"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,119 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -129,69 +241,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -471,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -487,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -496,22 +545,52 @@
         <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>3</v>
+      </c>
+      <c r="R1">
+        <v>4</v>
+      </c>
+      <c r="S1">
+        <v>5</v>
+      </c>
+      <c r="T1">
+        <v>6</v>
+      </c>
+      <c r="U1">
+        <v>7</v>
+      </c>
+      <c r="V1">
+        <v>8</v>
+      </c>
+      <c r="W1">
+        <v>9</v>
+      </c>
+      <c r="X1">
+        <v>10</v>
+      </c>
+      <c r="Y1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -519,31 +598,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -551,31 +624,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -583,31 +650,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -615,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -624,22 +685,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -647,31 +702,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -679,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -688,22 +737,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -711,31 +754,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -743,91 +780,1725 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
         <v>7</v>
       </c>
-      <c r="I10" s="1">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/himiya/Map_01.xlsx
+++ b/himiya/Map_01.xlsx
@@ -75,7 +75,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -157,90 +157,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -520,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -553,44 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>1</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>3</v>
-      </c>
-      <c r="R1">
-        <v>4</v>
-      </c>
-      <c r="S1">
-        <v>5</v>
-      </c>
-      <c r="T1">
-        <v>6</v>
-      </c>
-      <c r="U1">
-        <v>7</v>
-      </c>
-      <c r="V1">
-        <v>8</v>
-      </c>
-      <c r="W1">
-        <v>9</v>
-      </c>
-      <c r="X1">
-        <v>10</v>
-      </c>
-      <c r="Y1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -616,7 +496,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -642,7 +522,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -668,7 +548,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -694,7 +574,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -720,7 +600,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -746,7 +626,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -772,7 +652,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -798,7 +678,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -824,7 +704,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -850,7 +730,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -876,7 +756,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -902,7 +782,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -928,7 +808,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -954,7 +834,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
